--- a/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-MOPEDCondition.xlsx
+++ b/r5-ELGA-MOPED-194-MOPED-Profil-für-Condition-und-Procedure-erstellen/StructureDefinition-MOPEDCondition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T10:48:10+00:00</t>
+    <t>2024-10-24T11:49:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1152,7 +1152,7 @@
     <t>ICD10</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/sid/icd-10</t>
+    <t>https://termgit.elga.gv.at/CodeSystem/bmg-icd-10-2024</t>
   </si>
   <si>
     <t>Condition.code.coding:HDG</t>
@@ -1226,7 +1226,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/MOPEDEncounter)
 </t>
   </si>
   <si>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
